--- a/ExternalTestData/Excel/FilterTest.xlsx
+++ b/ExternalTestData/Excel/FilterTest.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -58,6 +58,9 @@
   <si>
     <t xml:space="preserve">3000</t>
   </si>
+  <si>
+    <t xml:space="preserve"># Dummy Row (Ignored by ExcelBinder)</t>
+  </si>
 </sst>
 </file>
 
@@ -101,7 +104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
   </sheetViews>
@@ -109,57 +112,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D5" s="0" t="s">
         <v>7</v>
       </c>
     </row>

--- a/ExternalTestData/Excel/FilterTest.xlsx
+++ b/ExternalTestData/Excel/FilterTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CS Project\ExcelBinder\ExternalTestData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676D4823-2941-4F31-AB17-6A7282ACF79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D09940-C5DB-4A46-9A39-707329F28B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="2580" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Id</t>
   </si>
@@ -46,28 +46,26 @@
     <t>Should be exported</t>
   </si>
   <si>
+    <t>Ignored Item</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>Should be ignored</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>Another Item</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
     <t>#102</t>
-  </si>
-  <si>
-    <t>Ignored Item</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>Should be ignored</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>Another Item</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t># Dummy Row (Ignored by ExcelBinder)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -450,72 +448,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" activeCellId="1" sqref="A2:XFD2 A3:XFD3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.3984375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
         <v>7</v>
       </c>
     </row>
